--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Tshr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.399451290637182</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N2">
-        <v>0.399451290637182</v>
+        <v>2.162955</v>
       </c>
       <c r="O2">
-        <v>0.1054928779790186</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P2">
-        <v>0.1054928779790186</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q2">
-        <v>10.17392536117386</v>
+        <v>29.38258385046334</v>
       </c>
       <c r="R2">
-        <v>10.17392536117386</v>
+        <v>264.4432546541701</v>
       </c>
       <c r="S2">
-        <v>0.001465334056403874</v>
+        <v>0.003260672918560337</v>
       </c>
       <c r="T2">
-        <v>0.001465334056403874</v>
+        <v>0.003260672918560337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.94651054678161</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N3">
-        <v>2.94651054678161</v>
+        <v>10.161911</v>
       </c>
       <c r="O3">
-        <v>0.7781571492226148</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P3">
-        <v>0.7781571492226148</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q3">
-        <v>75.04689327965158</v>
+        <v>138.0441118925015</v>
       </c>
       <c r="R3">
-        <v>75.04689327965158</v>
+        <v>1242.397007032514</v>
       </c>
       <c r="S3">
-        <v>0.01080888296759554</v>
+        <v>0.01531916660241216</v>
       </c>
       <c r="T3">
-        <v>0.01080888296759554</v>
+        <v>0.01531916660241216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.440561938305941</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N4">
-        <v>0.440561938305941</v>
+        <v>0.350249</v>
       </c>
       <c r="O4">
-        <v>0.1163499727983666</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P4">
-        <v>0.1163499727983666</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q4">
-        <v>11.22100336726639</v>
+        <v>4.75794485370289</v>
       </c>
       <c r="R4">
-        <v>11.22100336726639</v>
+        <v>42.82150368332601</v>
       </c>
       <c r="S4">
-        <v>0.001616143012393878</v>
+        <v>0.0005280033237181724</v>
       </c>
       <c r="T4">
-        <v>0.001616143012393878</v>
+        <v>0.0005280033237181723</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1687.31762033368</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>1687.31762033368</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.399451290637182</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N5">
-        <v>0.399451290637182</v>
+        <v>1.431185</v>
       </c>
       <c r="O5">
-        <v>0.1054928779790186</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P5">
-        <v>0.1054928779790186</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q5">
-        <v>674.0012011571471</v>
+        <v>19.44188079179889</v>
       </c>
       <c r="R5">
-        <v>674.0012011571471</v>
+        <v>174.97692712619</v>
       </c>
       <c r="S5">
-        <v>0.09707530565161655</v>
+        <v>0.002157523467177901</v>
       </c>
       <c r="T5">
-        <v>0.09707530565161655</v>
+        <v>0.0021575234671779</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.94651054678161</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N6">
-        <v>2.94651054678161</v>
+        <v>2.162955</v>
       </c>
       <c r="O6">
-        <v>0.7781571492226148</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P6">
-        <v>0.7781571492226148</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q6">
-        <v>4971.699164083637</v>
+        <v>1217.952250767067</v>
       </c>
       <c r="R6">
-        <v>4971.699164083637</v>
+        <v>10961.5702569036</v>
       </c>
       <c r="S6">
-        <v>0.7160658098720182</v>
+        <v>0.1351597919497866</v>
       </c>
       <c r="T6">
-        <v>0.7160658098720182</v>
+        <v>0.1351597919497865</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1687.31762033368</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>1687.31762033368</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.9202071979771356</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.440561938305941</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N7">
-        <v>0.440561938305941</v>
+        <v>10.161911</v>
       </c>
       <c r="O7">
-        <v>0.1163499727983666</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P7">
-        <v>0.1163499727983666</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q7">
-        <v>743.3679213519739</v>
+        <v>5722.13586253279</v>
       </c>
       <c r="R7">
-        <v>743.3679213519739</v>
+        <v>51499.22276279511</v>
       </c>
       <c r="S7">
-        <v>0.1070660824535008</v>
+        <v>0.635002474194908</v>
       </c>
       <c r="T7">
-        <v>0.1070660824535008</v>
+        <v>0.635002474194908</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>36.3817458793937</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>36.3817458793937</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.399451290637182</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N8">
-        <v>0.399451290637182</v>
+        <v>0.350249</v>
       </c>
       <c r="O8">
-        <v>0.1054928779790186</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P8">
-        <v>0.1054928779790186</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q8">
-        <v>14.53273534715779</v>
+        <v>197.2239634568978</v>
       </c>
       <c r="R8">
-        <v>14.53273534715779</v>
+        <v>1775.01567111208</v>
       </c>
       <c r="S8">
-        <v>0.00209312642671458</v>
+        <v>0.02188653114402324</v>
       </c>
       <c r="T8">
-        <v>0.00209312642671458</v>
+        <v>0.02188653114402324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>36.3817458793937</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>36.3817458793937</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.94651054678161</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N9">
-        <v>2.94651054678161</v>
+        <v>1.431185</v>
       </c>
       <c r="O9">
-        <v>0.7781571492226148</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P9">
-        <v>0.7781571492226148</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q9">
-        <v>107.1991979439619</v>
+        <v>805.8951721205779</v>
       </c>
       <c r="R9">
-        <v>107.1991979439619</v>
+        <v>7253.0565490852</v>
       </c>
       <c r="S9">
-        <v>0.01543972753780292</v>
+        <v>0.08943258960156604</v>
       </c>
       <c r="T9">
-        <v>0.01543972753780292</v>
+        <v>0.08943258960156603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.3817458793937</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H10">
-        <v>36.3817458793937</v>
+        <v>302.896207</v>
       </c>
       <c r="I10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J10">
-        <v>0.01984140035624852</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.440561938305941</v>
+        <v>0.7209850000000001</v>
       </c>
       <c r="N10">
-        <v>0.440561938305941</v>
+        <v>2.162955</v>
       </c>
       <c r="O10">
-        <v>0.1163499727983666</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="P10">
-        <v>0.1163499727983666</v>
+        <v>0.1533325535399077</v>
       </c>
       <c r="Q10">
-        <v>16.02841248357987</v>
+        <v>72.79454060129834</v>
       </c>
       <c r="R10">
-        <v>16.02841248357987</v>
+        <v>655.1508654116851</v>
       </c>
       <c r="S10">
-        <v>0.002308546391731016</v>
+        <v>0.008078227169049719</v>
       </c>
       <c r="T10">
-        <v>0.002308546391731016</v>
+        <v>0.008078227169049717</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>84.4588124548977</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H11">
-        <v>84.4588124548977</v>
+        <v>302.896207</v>
       </c>
       <c r="I11">
-        <v>0.04606104163022263</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J11">
-        <v>0.04606104163022263</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.399451290637182</v>
+        <v>3.387303666666666</v>
       </c>
       <c r="N11">
-        <v>0.399451290637182</v>
+        <v>10.161911</v>
       </c>
       <c r="O11">
-        <v>0.1054928779790186</v>
+        <v>0.7203810354238886</v>
       </c>
       <c r="P11">
-        <v>0.1054928779790186</v>
+        <v>0.7203810354238885</v>
       </c>
       <c r="Q11">
-        <v>33.73718164079258</v>
+        <v>342.0004775301752</v>
       </c>
       <c r="R11">
-        <v>33.73718164079258</v>
+        <v>3078.004297771577</v>
       </c>
       <c r="S11">
-        <v>0.00485911184428357</v>
+        <v>0.03795281248554185</v>
       </c>
       <c r="T11">
-        <v>0.00485911184428357</v>
+        <v>0.03795281248554185</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>84.4588124548977</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H12">
-        <v>84.4588124548977</v>
+        <v>302.896207</v>
       </c>
       <c r="I12">
-        <v>0.04606104163022263</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J12">
-        <v>0.04606104163022263</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.94651054678161</v>
+        <v>0.1167496666666667</v>
       </c>
       <c r="N12">
-        <v>2.94651054678161</v>
+        <v>0.350249</v>
       </c>
       <c r="O12">
-        <v>0.7781571492226148</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="P12">
-        <v>0.7781571492226148</v>
+        <v>0.02482926068494219</v>
       </c>
       <c r="Q12">
-        <v>248.8587816670061</v>
+        <v>11.78767706728256</v>
       </c>
       <c r="R12">
-        <v>248.8587816670061</v>
+        <v>106.089093605543</v>
       </c>
       <c r="S12">
-        <v>0.03584272884519822</v>
+        <v>0.001308113662897515</v>
       </c>
       <c r="T12">
-        <v>0.03584272884519822</v>
+        <v>0.001308113662897515</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>84.4588124548977</v>
+        <v>100.9654023333333</v>
       </c>
       <c r="H13">
-        <v>84.4588124548977</v>
+        <v>302.896207</v>
       </c>
       <c r="I13">
-        <v>0.04606104163022263</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="J13">
-        <v>0.04606104163022263</v>
+        <v>0.05268435816499466</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.440561938305941</v>
+        <v>0.4770616666666667</v>
       </c>
       <c r="N13">
-        <v>0.440561938305941</v>
+        <v>1.431185</v>
       </c>
       <c r="O13">
-        <v>0.1163499727983666</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="P13">
-        <v>0.1163499727983666</v>
+        <v>0.1014571503512615</v>
       </c>
       <c r="Q13">
-        <v>37.20933812214768</v>
+        <v>48.16672311281056</v>
       </c>
       <c r="R13">
-        <v>37.20933812214768</v>
+        <v>433.5005080152951</v>
       </c>
       <c r="S13">
-        <v>0.005359200940740833</v>
+        <v>0.005345204847505575</v>
       </c>
       <c r="T13">
-        <v>0.005359200940740833</v>
+        <v>0.005345204847505575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H14">
+        <v>256.238242</v>
+      </c>
+      <c r="I14">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J14">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7209850000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.162955</v>
+      </c>
+      <c r="O14">
+        <v>0.1533325535399077</v>
+      </c>
+      <c r="P14">
+        <v>0.1533325535399077</v>
+      </c>
+      <c r="Q14">
+        <v>61.58130963612335</v>
+      </c>
+      <c r="R14">
+        <v>554.2317867251101</v>
+      </c>
+      <c r="S14">
+        <v>0.006833861502511113</v>
+      </c>
+      <c r="T14">
+        <v>0.006833861502511112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H15">
+        <v>256.238242</v>
+      </c>
+      <c r="I15">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J15">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.387303666666666</v>
+      </c>
+      <c r="N15">
+        <v>10.161911</v>
+      </c>
+      <c r="O15">
+        <v>0.7203810354238886</v>
+      </c>
+      <c r="P15">
+        <v>0.7203810354238885</v>
+      </c>
+      <c r="Q15">
+        <v>289.3189122222736</v>
+      </c>
+      <c r="R15">
+        <v>2603.870210000462</v>
+      </c>
+      <c r="S15">
+        <v>0.0321065821410266</v>
+      </c>
+      <c r="T15">
+        <v>0.03210658214102659</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H16">
+        <v>256.238242</v>
+      </c>
+      <c r="I16">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J16">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1167496666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.350249</v>
+      </c>
+      <c r="O16">
+        <v>0.02482926068494219</v>
+      </c>
+      <c r="P16">
+        <v>0.02482926068494219</v>
+      </c>
+      <c r="Q16">
+        <v>9.971909780250892</v>
+      </c>
+      <c r="R16">
+        <v>89.74718802225802</v>
+      </c>
+      <c r="S16">
+        <v>0.001106612554303263</v>
+      </c>
+      <c r="T16">
+        <v>0.001106612554303263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H17">
+        <v>256.238242</v>
+      </c>
+      <c r="I17">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J17">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4770616666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.431185</v>
+      </c>
+      <c r="O17">
+        <v>0.1014571503512615</v>
+      </c>
+      <c r="P17">
+        <v>0.1014571503512615</v>
+      </c>
+      <c r="Q17">
+        <v>40.74714759741889</v>
+      </c>
+      <c r="R17">
+        <v>366.7243283767701</v>
+      </c>
+      <c r="S17">
+        <v>0.004521832435011993</v>
+      </c>
+      <c r="T17">
+        <v>0.004521832435011993</v>
       </c>
     </row>
   </sheetData>
